--- a/dependencies/brucella/canis/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/canis/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/canis/script_dependents/python/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/canis/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501B015E-1B94-BF4F-93E4-6A2D770CAF7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="620" windowWidth="21600" windowHeight="17460"/>
+    <workbookView xWindow="55060" yWindow="5800" windowWidth="21600" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,21 +36,6 @@
     <t>Absolute position</t>
   </si>
   <si>
-    <t>gi|161620094|ref|NC_010104.1|-813972</t>
-  </si>
-  <si>
-    <t>gi|161617991|ref|NC_010103.1|-567307</t>
-  </si>
-  <si>
-    <t>gi|161617991|ref|NC_010103.1|-435156</t>
-  </si>
-  <si>
-    <t>gi|161620094|ref|NC_010104.1|-717653</t>
-  </si>
-  <si>
-    <t>gi|161620094|ref|NC_010104.1|-793644</t>
-  </si>
-  <si>
     <t>Bcanis-01</t>
   </si>
   <si>
@@ -64,14 +50,36 @@
   <si>
     <t>Bcanis-05</t>
   </si>
+  <si>
+    <t>NC_010104.1-813972</t>
+  </si>
+  <si>
+    <t>NC_010103.1-567307</t>
+  </si>
+  <si>
+    <t>NC_010103.1-435156</t>
+  </si>
+  <si>
+    <t>NC_010104.1-717653</t>
+  </si>
+  <si>
+    <t>NC_010104.1-793644</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -536,120 +544,123 @@
   </borders>
   <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,12 +1078,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1092,42 +1103,42 @@
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">

--- a/dependencies/brucella/canis/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/brucella/canis/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/canis/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\canis\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501B015E-1B94-BF4F-93E4-6A2D770CAF7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55060" yWindow="5800" windowWidth="21600" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55065" yWindow="5805" windowWidth="21600" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Grouping</t>
   </si>
@@ -64,12 +60,18 @@
   </si>
   <si>
     <t>NC_010104.1-793644</t>
+  </si>
+  <si>
+    <t>NC_010103.1-1106005</t>
+  </si>
+  <si>
+    <t>Bcanis-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,22 +1080,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="163" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1141,43 +1143,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
